--- a/Raw/ACmm-short.xlsx
+++ b/Raw/ACmm-short.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Fine experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B5909-EF43-4513-875B-4DE5BB52B3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D64659-1092-4353-8FCE-E71153743FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13B5BCD6-56BC-4B67-8325-B3F11EEBAFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ACmm-short 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>pH 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -90,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +117,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49D9C29-BB8F-4D7A-9D59-3FF2F6F4709B}">
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="I302" sqref="I253:I302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +488,44 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="str">
+        <f>CONCATENATE($U1,B1)</f>
+        <v>Info pH 5.0</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" ref="W1:AC1" si="0">CONCATENATE($U1,C1)</f>
+        <v>Info pH 5.5</v>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.0</v>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.5</v>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.0</v>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.5</v>
+      </c>
+      <c r="AB1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.0</v>
+      </c>
+      <c r="AC1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -496,7 +548,8 @@
         <v>120344.46875</v>
       </c>
       <c r="H2">
-        <v>138190.640625</v>
+        <f t="shared" ref="H2:H65" si="1">J$108+Q2</f>
+        <v>145111.96875</v>
       </c>
       <c r="I2">
         <v>148773.859375</v>
@@ -526,7 +579,7 @@
         <v>148773.859375</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -549,7 +602,8 @@
         <v>118291.578125</v>
       </c>
       <c r="H3">
-        <v>136751.859375</v>
+        <f t="shared" si="1"/>
+        <v>143673.1875</v>
       </c>
       <c r="I3">
         <v>147334.75</v>
@@ -579,7 +633,7 @@
         <v>147334.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -602,7 +656,8 @@
         <v>117980.765625</v>
       </c>
       <c r="H4">
-        <v>135396.140625</v>
+        <f t="shared" si="1"/>
+        <v>142317.46875</v>
       </c>
       <c r="I4">
         <v>146621.28125</v>
@@ -631,8 +686,32 @@
       <c r="R4">
         <v>146621.28125</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>-2.43855284674553E-2</v>
+      </c>
+      <c r="W4">
+        <v>-2.51206005242888E-2</v>
+      </c>
+      <c r="X4">
+        <v>-2.5676750604056602E-2</v>
+      </c>
+      <c r="Y4">
+        <v>-2.5574720018505699E-2</v>
+      </c>
+      <c r="Z4">
+        <v>-2.4487775901614401E-2</v>
+      </c>
+      <c r="AA4">
+        <v>-2.2557667452491301E-2</v>
+      </c>
+      <c r="AB4">
+        <v>-2.00338919010166E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-1.72089650592686E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -655,7 +734,8 @@
         <v>116358.4375</v>
       </c>
       <c r="H5">
-        <v>134544.453125</v>
+        <f t="shared" si="1"/>
+        <v>141465.78125</v>
       </c>
       <c r="I5">
         <v>145341.71875</v>
@@ -685,7 +765,7 @@
         <v>145341.71875</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -708,7 +788,8 @@
         <v>116017.5859375</v>
       </c>
       <c r="H6">
-        <v>133623.3125</v>
+        <f t="shared" si="1"/>
+        <v>140544.640625</v>
       </c>
       <c r="I6">
         <v>144161.734375</v>
@@ -737,8 +818,32 @@
       <c r="R6">
         <v>144161.734375</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>12.852399461812601</v>
+      </c>
+      <c r="W6">
+        <v>13.0118330695678</v>
+      </c>
+      <c r="X6">
+        <v>13.0632360957792</v>
+      </c>
+      <c r="Y6">
+        <v>12.9856912326553</v>
+      </c>
+      <c r="Z6">
+        <v>12.834123955278899</v>
+      </c>
+      <c r="AA6">
+        <v>12.6582351476233</v>
+      </c>
+      <c r="AB6">
+        <v>12.5025367409221</v>
+      </c>
+      <c r="AC6">
+        <v>12.368049937964001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -761,7 +866,8 @@
         <v>114869.515625</v>
       </c>
       <c r="H7">
-        <v>133018.96875</v>
+        <f t="shared" si="1"/>
+        <v>139940.296875</v>
       </c>
       <c r="I7">
         <v>143798.671875</v>
@@ -791,7 +897,7 @@
         <v>143798.671875</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -814,7 +920,8 @@
         <v>114166.0625</v>
       </c>
       <c r="H8">
-        <v>132048.609375</v>
+        <f t="shared" si="1"/>
+        <v>138969.9375</v>
       </c>
       <c r="I8">
         <v>143325.578125</v>
@@ -844,7 +951,7 @@
         <v>143325.578125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -867,7 +974,8 @@
         <v>113531.828125</v>
       </c>
       <c r="H9">
-        <v>131155.296875</v>
+        <f t="shared" si="1"/>
+        <v>138076.625</v>
       </c>
       <c r="I9">
         <v>142759.65625</v>
@@ -897,7 +1005,7 @@
         <v>142759.65625</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -920,7 +1028,8 @@
         <v>113085.015625</v>
       </c>
       <c r="H10">
-        <v>130207</v>
+        <f t="shared" si="1"/>
+        <v>137128.328125</v>
       </c>
       <c r="I10">
         <v>141417.859375</v>
@@ -950,7 +1059,7 @@
         <v>141417.859375</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -973,7 +1082,8 @@
         <v>112616.5234375</v>
       </c>
       <c r="H11">
-        <v>129884.3203125</v>
+        <f t="shared" si="1"/>
+        <v>136805.6484375</v>
       </c>
       <c r="I11">
         <v>141579.71875</v>
@@ -1003,7 +1113,7 @@
         <v>141579.71875</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1026,7 +1136,8 @@
         <v>111619.53125</v>
       </c>
       <c r="H12">
-        <v>129891.34375</v>
+        <f t="shared" si="1"/>
+        <v>136812.671875</v>
       </c>
       <c r="I12">
         <v>140705.640625</v>
@@ -1056,7 +1167,7 @@
         <v>140705.640625</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -1079,7 +1190,8 @@
         <v>111630.78125</v>
       </c>
       <c r="H13">
-        <v>128537.109375</v>
+        <f t="shared" si="1"/>
+        <v>135458.4375</v>
       </c>
       <c r="I13">
         <v>139857.21875</v>
@@ -1109,7 +1221,7 @@
         <v>139857.21875</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -1132,7 +1244,8 @@
         <v>110975.21875</v>
       </c>
       <c r="H14">
-        <v>128075.96875</v>
+        <f t="shared" si="1"/>
+        <v>134997.296875</v>
       </c>
       <c r="I14">
         <v>139585.59375</v>
@@ -1162,7 +1275,7 @@
         <v>139585.59375</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -1185,7 +1298,8 @@
         <v>110639</v>
       </c>
       <c r="H15">
-        <v>127878.09375</v>
+        <f t="shared" si="1"/>
+        <v>134799.421875</v>
       </c>
       <c r="I15">
         <v>139244.140625</v>
@@ -1215,7 +1329,7 @@
         <v>139244.140625</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -1238,7 +1352,8 @@
         <v>109587.84375</v>
       </c>
       <c r="H16">
-        <v>127152.7890625</v>
+        <f t="shared" si="1"/>
+        <v>134074.1171875</v>
       </c>
       <c r="I16">
         <v>138454.96875</v>
@@ -1291,7 +1406,8 @@
         <v>109596.828125</v>
       </c>
       <c r="H17">
-        <v>127017.6484375</v>
+        <f t="shared" si="1"/>
+        <v>133938.9765625</v>
       </c>
       <c r="I17">
         <v>137665.1875</v>
@@ -1344,7 +1460,8 @@
         <v>108993.3828125</v>
       </c>
       <c r="H18">
-        <v>126162.2421875</v>
+        <f t="shared" si="1"/>
+        <v>133083.5703125</v>
       </c>
       <c r="I18">
         <v>137865.546875</v>
@@ -1397,7 +1514,8 @@
         <v>108749.640625</v>
       </c>
       <c r="H19">
-        <v>126710.9140625</v>
+        <f t="shared" si="1"/>
+        <v>133632.2421875</v>
       </c>
       <c r="I19">
         <v>137025.75</v>
@@ -1450,7 +1568,8 @@
         <v>108218.421875</v>
       </c>
       <c r="H20">
-        <v>125783.703125</v>
+        <f t="shared" si="1"/>
+        <v>132705.03125</v>
       </c>
       <c r="I20">
         <v>136184.25</v>
@@ -1503,7 +1622,8 @@
         <v>108052.2890625</v>
       </c>
       <c r="H21">
-        <v>125303.4375</v>
+        <f t="shared" si="1"/>
+        <v>132224.765625</v>
       </c>
       <c r="I21">
         <v>136358.734375</v>
@@ -1556,7 +1676,8 @@
         <v>107696.75</v>
       </c>
       <c r="H22">
-        <v>124895.546875</v>
+        <f t="shared" si="1"/>
+        <v>131816.875</v>
       </c>
       <c r="I22">
         <v>135971.75</v>
@@ -1609,7 +1730,8 @@
         <v>107174.2421875</v>
       </c>
       <c r="H23">
-        <v>124332.1796875</v>
+        <f t="shared" si="1"/>
+        <v>131253.5078125</v>
       </c>
       <c r="I23">
         <v>135542.40625</v>
@@ -1662,7 +1784,8 @@
         <v>107094</v>
       </c>
       <c r="H24">
-        <v>124303.0390625</v>
+        <f t="shared" si="1"/>
+        <v>131224.3671875</v>
       </c>
       <c r="I24">
         <v>134930.375</v>
@@ -1715,7 +1838,8 @@
         <v>106432.625</v>
       </c>
       <c r="H25">
-        <v>124004.015625</v>
+        <f t="shared" si="1"/>
+        <v>130925.34375</v>
       </c>
       <c r="I25">
         <v>134099.78125</v>
@@ -1768,7 +1892,8 @@
         <v>106585.109375</v>
       </c>
       <c r="H26">
-        <v>123598.3125</v>
+        <f t="shared" si="1"/>
+        <v>130519.640625</v>
       </c>
       <c r="I26">
         <v>134255.3125</v>
@@ -1821,7 +1946,8 @@
         <v>105993.15625</v>
       </c>
       <c r="H27">
-        <v>123110.671875</v>
+        <f t="shared" si="1"/>
+        <v>130032</v>
       </c>
       <c r="I27">
         <v>133329.703125</v>
@@ -1874,7 +2000,8 @@
         <v>105863.6171875</v>
       </c>
       <c r="H28">
-        <v>122583.65625</v>
+        <f t="shared" si="1"/>
+        <v>129504.984375</v>
       </c>
       <c r="I28">
         <v>132693.21875</v>
@@ -1927,7 +2054,8 @@
         <v>105599.9609375</v>
       </c>
       <c r="H29">
-        <v>122205.8671875</v>
+        <f t="shared" si="1"/>
+        <v>129127.1953125</v>
       </c>
       <c r="I29">
         <v>132780.671875</v>
@@ -1980,7 +2108,8 @@
         <v>104840.375</v>
       </c>
       <c r="H30">
-        <v>121863.84375</v>
+        <f t="shared" si="1"/>
+        <v>128785.171875</v>
       </c>
       <c r="I30">
         <v>132188.375</v>
@@ -2033,7 +2162,8 @@
         <v>105089.8671875</v>
       </c>
       <c r="H31">
-        <v>120965.8984375</v>
+        <f t="shared" si="1"/>
+        <v>127887.2265625</v>
       </c>
       <c r="I31">
         <v>131707.1875</v>
@@ -2086,7 +2216,8 @@
         <v>104753.28125</v>
       </c>
       <c r="H32">
-        <v>120583.8046875</v>
+        <f t="shared" si="1"/>
+        <v>127505.1328125</v>
       </c>
       <c r="I32">
         <v>130735.78125</v>
@@ -2139,7 +2270,8 @@
         <v>104569.421875</v>
       </c>
       <c r="H33">
-        <v>120503.953125</v>
+        <f t="shared" si="1"/>
+        <v>127425.28125</v>
       </c>
       <c r="I33">
         <v>130244.0078125</v>
@@ -2192,7 +2324,8 @@
         <v>104557.3359375</v>
       </c>
       <c r="H34">
-        <v>120525.453125</v>
+        <f t="shared" si="1"/>
+        <v>127446.78125</v>
       </c>
       <c r="I34">
         <v>130385.4609375</v>
@@ -2245,7 +2378,8 @@
         <v>104127.75</v>
       </c>
       <c r="H35">
-        <v>120221.828125</v>
+        <f t="shared" si="1"/>
+        <v>127143.15625</v>
       </c>
       <c r="I35">
         <v>129069.796875</v>
@@ -2298,7 +2432,8 @@
         <v>103989.2734375</v>
       </c>
       <c r="H36">
-        <v>119645.6328125</v>
+        <f t="shared" si="1"/>
+        <v>126566.9609375</v>
       </c>
       <c r="I36">
         <v>128779.296875</v>
@@ -2351,7 +2486,8 @@
         <v>103908.8828125</v>
       </c>
       <c r="H37">
-        <v>119010.8359375</v>
+        <f t="shared" si="1"/>
+        <v>125932.1640625</v>
       </c>
       <c r="I37">
         <v>128658.9765625</v>
@@ -2404,7 +2540,8 @@
         <v>103389.046875</v>
       </c>
       <c r="H38">
-        <v>118495.25</v>
+        <f t="shared" si="1"/>
+        <v>125416.578125</v>
       </c>
       <c r="I38">
         <v>128276.484375</v>
@@ -2457,7 +2594,8 @@
         <v>103375.703125</v>
       </c>
       <c r="H39">
-        <v>118508.375</v>
+        <f t="shared" si="1"/>
+        <v>125429.703125</v>
       </c>
       <c r="I39">
         <v>126951.6328125</v>
@@ -2510,7 +2648,8 @@
         <v>103128.5546875</v>
       </c>
       <c r="H40">
-        <v>117897.765625</v>
+        <f t="shared" si="1"/>
+        <v>124819.09375</v>
       </c>
       <c r="I40">
         <v>127463.7734375</v>
@@ -2563,7 +2702,8 @@
         <v>102771.828125</v>
       </c>
       <c r="H41">
-        <v>117247.859375</v>
+        <f t="shared" si="1"/>
+        <v>124169.1875</v>
       </c>
       <c r="I41">
         <v>126476.1953125</v>
@@ -2616,7 +2756,8 @@
         <v>102294.734375</v>
       </c>
       <c r="H42">
-        <v>117640.9765625</v>
+        <f t="shared" si="1"/>
+        <v>124562.3046875</v>
       </c>
       <c r="I42">
         <v>126141.4375</v>
@@ -2669,7 +2810,8 @@
         <v>102027.5</v>
       </c>
       <c r="H43">
-        <v>116994.90625</v>
+        <f t="shared" si="1"/>
+        <v>123916.234375</v>
       </c>
       <c r="I43">
         <v>125695.953125</v>
@@ -2722,7 +2864,8 @@
         <v>101936.578125</v>
       </c>
       <c r="H44">
-        <v>116216.65625</v>
+        <f t="shared" si="1"/>
+        <v>123137.984375</v>
       </c>
       <c r="I44">
         <v>125085.421875</v>
@@ -2775,7 +2918,8 @@
         <v>101430.1796875</v>
       </c>
       <c r="H45">
-        <v>115888.75</v>
+        <f t="shared" si="1"/>
+        <v>122810.078125</v>
       </c>
       <c r="I45">
         <v>124776.9921875</v>
@@ -2828,7 +2972,8 @@
         <v>101163.453125</v>
       </c>
       <c r="H46">
-        <v>116098.515625</v>
+        <f t="shared" si="1"/>
+        <v>123019.84375</v>
       </c>
       <c r="I46">
         <v>124275.46875</v>
@@ -2881,7 +3026,8 @@
         <v>100709.59375</v>
       </c>
       <c r="H47">
-        <v>115367.2421875</v>
+        <f t="shared" si="1"/>
+        <v>122288.5703125</v>
       </c>
       <c r="I47">
         <v>123197.625</v>
@@ -2934,7 +3080,8 @@
         <v>100970.6953125</v>
       </c>
       <c r="H48">
-        <v>114781.25</v>
+        <f t="shared" si="1"/>
+        <v>121702.578125</v>
       </c>
       <c r="I48">
         <v>122870.2734375</v>
@@ -2987,7 +3134,8 @@
         <v>100589.203125</v>
       </c>
       <c r="H49">
-        <v>114879.5078125</v>
+        <f t="shared" si="1"/>
+        <v>121800.8359375</v>
       </c>
       <c r="I49">
         <v>122435.5078125</v>
@@ -3040,7 +3188,8 @@
         <v>100146.8828125</v>
       </c>
       <c r="H50">
-        <v>114023.7734375</v>
+        <f t="shared" si="1"/>
+        <v>120945.1015625</v>
       </c>
       <c r="I50">
         <v>121964.328125</v>
@@ -3093,7 +3242,8 @@
         <v>99861.4765625</v>
       </c>
       <c r="H51">
-        <v>113856.6015625</v>
+        <f t="shared" si="1"/>
+        <v>120777.9296875</v>
       </c>
       <c r="I51">
         <v>121209.3984375</v>
@@ -3146,7 +3296,8 @@
         <v>99644.2734375</v>
       </c>
       <c r="H52">
-        <v>113403.3515625</v>
+        <f t="shared" si="1"/>
+        <v>120324.6796875</v>
       </c>
       <c r="I52">
         <v>121190.359375</v>
@@ -3199,7 +3350,8 @@
         <v>99425.609375</v>
       </c>
       <c r="H53">
-        <v>112577.46875</v>
+        <f t="shared" si="1"/>
+        <v>119498.796875</v>
       </c>
       <c r="I53">
         <v>121165.953125</v>
@@ -3252,7 +3404,8 @@
         <v>98999.140625</v>
       </c>
       <c r="H54">
-        <v>111777.703125</v>
+        <f t="shared" si="1"/>
+        <v>118699.03125</v>
       </c>
       <c r="I54">
         <v>119653.7734375</v>
@@ -3305,7 +3458,8 @@
         <v>99146.125</v>
       </c>
       <c r="H55">
-        <v>111632.8515625</v>
+        <f t="shared" si="1"/>
+        <v>118554.1796875</v>
       </c>
       <c r="I55">
         <v>119725.78125</v>
@@ -3358,7 +3512,8 @@
         <v>98390.7890625</v>
       </c>
       <c r="H56">
-        <v>111487.1640625</v>
+        <f t="shared" si="1"/>
+        <v>118408.4921875</v>
       </c>
       <c r="I56">
         <v>118503.6875</v>
@@ -3411,7 +3566,8 @@
         <v>97734.7578125</v>
       </c>
       <c r="H57">
-        <v>111193.2109375</v>
+        <f t="shared" si="1"/>
+        <v>118114.5390625</v>
       </c>
       <c r="I57">
         <v>118102.859375</v>
@@ -3464,7 +3620,8 @@
         <v>97753.0625</v>
       </c>
       <c r="H58">
-        <v>110638.7734375</v>
+        <f t="shared" si="1"/>
+        <v>117560.1015625</v>
       </c>
       <c r="I58">
         <v>117437.453125</v>
@@ -3517,7 +3674,8 @@
         <v>97031.3984375</v>
       </c>
       <c r="H59">
-        <v>110727.2421875</v>
+        <f t="shared" si="1"/>
+        <v>117648.5703125</v>
       </c>
       <c r="I59">
         <v>117403.390625</v>
@@ -3570,7 +3728,8 @@
         <v>97460.859375</v>
       </c>
       <c r="H60">
-        <v>109514.21875</v>
+        <f t="shared" si="1"/>
+        <v>116435.546875</v>
       </c>
       <c r="I60">
         <v>116786.328125</v>
@@ -3623,7 +3782,8 @@
         <v>96907.9453125</v>
       </c>
       <c r="H61">
-        <v>109042.1328125</v>
+        <f t="shared" si="1"/>
+        <v>115963.4609375</v>
       </c>
       <c r="I61">
         <v>116662.6875</v>
@@ -3676,7 +3836,8 @@
         <v>96463.03125</v>
       </c>
       <c r="H62">
-        <v>108923.8125</v>
+        <f t="shared" si="1"/>
+        <v>115845.140625</v>
       </c>
       <c r="I62">
         <v>115594.28125</v>
@@ -3729,7 +3890,8 @@
         <v>96330.59375</v>
       </c>
       <c r="H63">
-        <v>108132.296875</v>
+        <f t="shared" si="1"/>
+        <v>115053.625</v>
       </c>
       <c r="I63">
         <v>114877.0390625</v>
@@ -3782,7 +3944,8 @@
         <v>95078.421875</v>
       </c>
       <c r="H64">
-        <v>107633.9296875</v>
+        <f t="shared" si="1"/>
+        <v>114555.2578125</v>
       </c>
       <c r="I64">
         <v>114252.640625</v>
@@ -3835,7 +3998,8 @@
         <v>95236.609375</v>
       </c>
       <c r="H65">
-        <v>107324.5625</v>
+        <f t="shared" si="1"/>
+        <v>114245.890625</v>
       </c>
       <c r="I65">
         <v>113504.3515625</v>
@@ -3888,7 +4052,8 @@
         <v>94588.640625</v>
       </c>
       <c r="H66">
-        <v>106687.5703125</v>
+        <f t="shared" ref="H66:H107" si="2">J$108+Q66</f>
+        <v>113608.8984375</v>
       </c>
       <c r="I66">
         <v>113216.46875</v>
@@ -3941,7 +4106,8 @@
         <v>94329.953125</v>
       </c>
       <c r="H67">
-        <v>106750.21875</v>
+        <f t="shared" si="2"/>
+        <v>113671.546875</v>
       </c>
       <c r="I67">
         <v>112769.15625</v>
@@ -3994,7 +4160,8 @@
         <v>94229.5234375</v>
       </c>
       <c r="H68">
-        <v>106208.09375</v>
+        <f t="shared" si="2"/>
+        <v>113129.421875</v>
       </c>
       <c r="I68">
         <v>112347.2109375</v>
@@ -4047,7 +4214,8 @@
         <v>93758.375</v>
       </c>
       <c r="H69">
-        <v>105500.96875</v>
+        <f t="shared" si="2"/>
+        <v>112422.296875</v>
       </c>
       <c r="I69">
         <v>111242.46875</v>
@@ -4100,7 +4268,8 @@
         <v>93457.7734375</v>
       </c>
       <c r="H70">
-        <v>105257.09375</v>
+        <f t="shared" si="2"/>
+        <v>112178.421875</v>
       </c>
       <c r="I70">
         <v>110606.8828125</v>
@@ -4153,7 +4322,8 @@
         <v>93060.21875</v>
       </c>
       <c r="H71">
-        <v>104581.9140625</v>
+        <f t="shared" si="2"/>
+        <v>111503.2421875</v>
       </c>
       <c r="I71">
         <v>110123.6328125</v>
@@ -4206,7 +4376,8 @@
         <v>92579.4140625</v>
       </c>
       <c r="H72">
-        <v>104013.78125</v>
+        <f t="shared" si="2"/>
+        <v>110935.109375</v>
       </c>
       <c r="I72">
         <v>109599.8671875</v>
@@ -4259,7 +4430,8 @@
         <v>92416.46875</v>
       </c>
       <c r="H73">
-        <v>103400.5</v>
+        <f t="shared" si="2"/>
+        <v>110321.828125</v>
       </c>
       <c r="I73">
         <v>108798.15625</v>
@@ -4312,7 +4484,8 @@
         <v>91869.75</v>
       </c>
       <c r="H74">
-        <v>102955.2109375</v>
+        <f t="shared" si="2"/>
+        <v>109876.5390625</v>
       </c>
       <c r="I74">
         <v>108928.890625</v>
@@ -4365,7 +4538,8 @@
         <v>91331.140625</v>
       </c>
       <c r="H75">
-        <v>102029.7109375</v>
+        <f t="shared" si="2"/>
+        <v>108951.0390625</v>
       </c>
       <c r="I75">
         <v>108045.328125</v>
@@ -4418,7 +4592,8 @@
         <v>91307.0703125</v>
       </c>
       <c r="H76">
-        <v>102031.5546875</v>
+        <f t="shared" si="2"/>
+        <v>108952.8828125</v>
       </c>
       <c r="I76">
         <v>107059.9453125</v>
@@ -4471,7 +4646,8 @@
         <v>90762.15625</v>
       </c>
       <c r="H77">
-        <v>101032.65625</v>
+        <f t="shared" si="2"/>
+        <v>107953.984375</v>
       </c>
       <c r="I77">
         <v>107154.71875</v>
@@ -4524,7 +4700,8 @@
         <v>89565.1484375</v>
       </c>
       <c r="H78">
-        <v>100681.75</v>
+        <f t="shared" si="2"/>
+        <v>107603.078125</v>
       </c>
       <c r="I78">
         <v>106363.8828125</v>
@@ -4577,7 +4754,8 @@
         <v>89685.34375</v>
       </c>
       <c r="H79">
-        <v>99724.28125</v>
+        <f t="shared" si="2"/>
+        <v>106645.609375</v>
       </c>
       <c r="I79">
         <v>104837.53125</v>
@@ -4630,7 +4808,8 @@
         <v>89063.5</v>
       </c>
       <c r="H80">
-        <v>99543.9609375</v>
+        <f t="shared" si="2"/>
+        <v>106465.2890625</v>
       </c>
       <c r="I80">
         <v>104823.796875</v>
@@ -4683,7 +4862,8 @@
         <v>88727.984375</v>
       </c>
       <c r="H81">
-        <v>98546.328125</v>
+        <f t="shared" si="2"/>
+        <v>105467.65625</v>
       </c>
       <c r="I81">
         <v>104180.875</v>
@@ -4736,7 +4916,8 @@
         <v>88111.125</v>
       </c>
       <c r="H82">
-        <v>98330.0625</v>
+        <f t="shared" si="2"/>
+        <v>105251.390625</v>
       </c>
       <c r="I82">
         <v>103477.109375</v>
@@ -4789,7 +4970,8 @@
         <v>88124.734375</v>
       </c>
       <c r="H83">
-        <v>97989.2265625</v>
+        <f t="shared" si="2"/>
+        <v>104910.5546875</v>
       </c>
       <c r="I83">
         <v>102416.5625</v>
@@ -4842,7 +5024,8 @@
         <v>87084.703125</v>
       </c>
       <c r="H84">
-        <v>97072.984375</v>
+        <f t="shared" si="2"/>
+        <v>103994.3125</v>
       </c>
       <c r="I84">
         <v>101665.953125</v>
@@ -4895,7 +5078,8 @@
         <v>86764.234375</v>
       </c>
       <c r="H85">
-        <v>96157.7578125</v>
+        <f t="shared" si="2"/>
+        <v>103079.0859375</v>
       </c>
       <c r="I85">
         <v>101168.203125</v>
@@ -4948,7 +5132,8 @@
         <v>86248.1171875</v>
       </c>
       <c r="H86">
-        <v>95938.25</v>
+        <f t="shared" si="2"/>
+        <v>102859.578125</v>
       </c>
       <c r="I86">
         <v>100413.0625</v>
@@ -5001,7 +5186,8 @@
         <v>86188.453125</v>
       </c>
       <c r="H87">
-        <v>95804.2578125</v>
+        <f t="shared" si="2"/>
+        <v>102725.5859375</v>
       </c>
       <c r="I87">
         <v>100193.171875</v>
@@ -5054,7 +5240,8 @@
         <v>85545.9296875</v>
       </c>
       <c r="H88">
-        <v>94965.609375</v>
+        <f t="shared" si="2"/>
+        <v>101886.9375</v>
       </c>
       <c r="I88">
         <v>99059</v>
@@ -5107,7 +5294,8 @@
         <v>84894.2421875</v>
       </c>
       <c r="H89">
-        <v>94270.7421875</v>
+        <f t="shared" si="2"/>
+        <v>101192.0703125</v>
       </c>
       <c r="I89">
         <v>98389.6171875</v>
@@ -5160,7 +5348,8 @@
         <v>84259.703125</v>
       </c>
       <c r="H90">
-        <v>93826.1328125</v>
+        <f t="shared" si="2"/>
+        <v>100747.4609375</v>
       </c>
       <c r="I90">
         <v>97547.390625</v>
@@ -5213,7 +5402,8 @@
         <v>84094.390625</v>
       </c>
       <c r="H91">
-        <v>92441.4765625</v>
+        <f t="shared" si="2"/>
+        <v>99362.8046875</v>
       </c>
       <c r="I91">
         <v>96915.03125</v>
@@ -5266,7 +5456,8 @@
         <v>83655.046875</v>
       </c>
       <c r="H92">
-        <v>92638.359375</v>
+        <f t="shared" si="2"/>
+        <v>99559.6875</v>
       </c>
       <c r="I92">
         <v>96398.734375</v>
@@ -5319,7 +5510,8 @@
         <v>82678.265625</v>
       </c>
       <c r="H93">
-        <v>91983.484375</v>
+        <f t="shared" si="2"/>
+        <v>98904.8125</v>
       </c>
       <c r="I93">
         <v>95527.109375</v>
@@ -5372,7 +5564,8 @@
         <v>82960.90625</v>
       </c>
       <c r="H94">
-        <v>91523.4609375</v>
+        <f t="shared" si="2"/>
+        <v>98444.7890625</v>
       </c>
       <c r="I94">
         <v>94946.9140625</v>
@@ -5425,7 +5618,8 @@
         <v>82249.828125</v>
       </c>
       <c r="H95">
-        <v>90362.1640625</v>
+        <f t="shared" si="2"/>
+        <v>97283.4921875</v>
       </c>
       <c r="I95">
         <v>94075.296875</v>
@@ -5478,7 +5672,8 @@
         <v>81920.1796875</v>
       </c>
       <c r="H96">
-        <v>89714.8984375</v>
+        <f t="shared" si="2"/>
+        <v>96636.2265625</v>
       </c>
       <c r="I96">
         <v>93374.03125</v>
@@ -5531,7 +5726,8 @@
         <v>81292.15625</v>
       </c>
       <c r="H97">
-        <v>89415.5234375</v>
+        <f t="shared" si="2"/>
+        <v>96336.8515625</v>
       </c>
       <c r="I97">
         <v>92721.015625</v>
@@ -5584,7 +5780,8 @@
         <v>80682.953125</v>
       </c>
       <c r="H98">
-        <v>88945.203125</v>
+        <f t="shared" si="2"/>
+        <v>95866.53125</v>
       </c>
       <c r="I98">
         <v>91839.6328125</v>
@@ -5637,7 +5834,8 @@
         <v>80227.1875</v>
       </c>
       <c r="H99">
-        <v>88103.359375</v>
+        <f t="shared" si="2"/>
+        <v>95024.6875</v>
       </c>
       <c r="I99">
         <v>90881.5546875</v>
@@ -5690,7 +5888,8 @@
         <v>79311.875</v>
       </c>
       <c r="H100">
-        <v>87587.4921875</v>
+        <f t="shared" si="2"/>
+        <v>94508.8203125</v>
       </c>
       <c r="I100">
         <v>89972.2109375</v>
@@ -5743,7 +5942,8 @@
         <v>78611.09375</v>
       </c>
       <c r="H101">
-        <v>86756.7421875</v>
+        <f t="shared" si="2"/>
+        <v>93678.0703125</v>
       </c>
       <c r="I101">
         <v>89400.3046875</v>
@@ -5796,7 +5996,8 @@
         <v>78044.4609375</v>
       </c>
       <c r="H102">
-        <v>86514.65625</v>
+        <f t="shared" si="2"/>
+        <v>93435.984375</v>
       </c>
       <c r="I102">
         <v>88893.984375</v>
@@ -5849,7 +6050,8 @@
         <v>78175.359375</v>
       </c>
       <c r="H103">
-        <v>85576.6796875</v>
+        <f t="shared" si="2"/>
+        <v>92498.0078125</v>
       </c>
       <c r="I103">
         <v>87986.734375</v>
@@ -5902,7 +6104,8 @@
         <v>77511.59375</v>
       </c>
       <c r="H104">
-        <v>85143.90625</v>
+        <f t="shared" si="2"/>
+        <v>92065.234375</v>
       </c>
       <c r="I104">
         <v>87001.15625</v>
@@ -5955,7 +6158,8 @@
         <v>76727.1953125</v>
       </c>
       <c r="H105">
-        <v>83803.0234375</v>
+        <f t="shared" si="2"/>
+        <v>90724.3515625</v>
       </c>
       <c r="I105">
         <v>87086.375</v>
@@ -6008,7 +6212,8 @@
         <v>76351.046875</v>
       </c>
       <c r="H106">
-        <v>83561.546875</v>
+        <f t="shared" si="2"/>
+        <v>90482.875</v>
       </c>
       <c r="I106">
         <v>86073.9375</v>
@@ -6061,7 +6266,8 @@
         <v>75336.0546875</v>
       </c>
       <c r="H107">
-        <v>83503.2265625</v>
+        <f t="shared" si="2"/>
+        <v>90424.5546875</v>
       </c>
       <c r="I107">
         <v>85359.8125</v>
@@ -6114,10 +6320,14 @@
         <v>75158.0625</v>
       </c>
       <c r="H108">
-        <v>82785.4765625</v>
+        <f>J$108+Q108</f>
+        <v>89706.8046875</v>
       </c>
       <c r="I108">
         <v>84732.875</v>
+      </c>
+      <c r="J108">
+        <v>6921.328125</v>
       </c>
       <c r="K108">
         <v>75959.640625</v>
@@ -13481,7 +13691,7 @@
         <v>59586.5859375</v>
       </c>
       <c r="H247">
-        <f t="shared" ref="H247:H301" si="0">Q247-(Q247-(0.0815461388302513*$A247-2.78894454387235)*EXP(12.70776)*EXP($A247*-0.037194))</f>
+        <f t="shared" ref="H247:H301" si="3">Q247-(Q247-(0.0815461388302513*$A247-2.78894454387235)*EXP(12.70776)*EXP($A247*-0.037194))</f>
         <v>64370.513588007881</v>
       </c>
       <c r="I247">
@@ -13535,7 +13745,7 @@
         <v>58992.8203125</v>
       </c>
       <c r="H248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64087.335525239432</v>
       </c>
       <c r="I248">
@@ -13589,7 +13799,7 @@
         <v>59697.8828125</v>
       </c>
       <c r="H249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63802.516220507743</v>
       </c>
       <c r="I249">
@@ -13643,7 +13853,7 @@
         <v>58799.52734375</v>
       </c>
       <c r="H250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63516.126963186529</v>
       </c>
       <c r="I250">
@@ -13697,7 +13907,7 @@
         <v>58780.78125</v>
       </c>
       <c r="H251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63228.237662648549</v>
       </c>
       <c r="I251">
@@ -13751,7 +13961,7 @@
         <v>58336.46875</v>
       </c>
       <c r="H252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62938.916870113506</v>
       </c>
       <c r="I252">
@@ -13805,11 +14015,11 @@
         <v>57912.0859375</v>
       </c>
       <c r="H253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62648.231800181122</v>
       </c>
       <c r="I253">
-        <f t="shared" ref="I253:I301" si="1">R253-(R253-(0.0833541076485579*$A253-3.1871522045262)*EXP(12.70776)*EXP($A253*-0.037194))</f>
+        <f t="shared" ref="I253:I301" si="4">R253-(R253-(0.0833541076485579*$A253-3.1871522045262)*EXP(12.70776)*EXP($A253*-0.037194))</f>
         <v>58431.457440510683</v>
       </c>
       <c r="K253">
@@ -13860,11 +14070,11 @@
         <v>57386.4453125</v>
       </c>
       <c r="H254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62356.248352053415</v>
       </c>
       <c r="I254">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58195.20285577391</v>
       </c>
       <c r="K254">
@@ -13915,11 +14125,11 @@
         <v>56961.7734375</v>
       </c>
       <c r="H255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62063.031130450763</v>
       </c>
       <c r="I255">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57956.996933826944</v>
       </c>
       <c r="K255">
@@ -13970,11 +14180,11 @@
         <v>56791.75</v>
       </c>
       <c r="H256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61768.643466225541</v>
       </c>
       <c r="I256">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57716.912068326485</v>
       </c>
       <c r="K256">
@@ -14025,11 +14235,11 @@
         <v>56613.9375</v>
       </c>
       <c r="H257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61473.147436677944</v>
       </c>
       <c r="I257">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57475.019286602233</v>
       </c>
       <c r="K257">
@@ -14080,11 +14290,11 @@
         <v>56289.36328125</v>
       </c>
       <c r="H258">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61176.603885577431</v>
       </c>
       <c r="I258">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57231.388271065211</v>
       </c>
       <c r="K258">
@@ -14135,11 +14345,11 @@
         <v>55890.046875</v>
       </c>
       <c r="H259">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60879.072442894605</v>
       </c>
       <c r="I259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56986.087380309655</v>
       </c>
       <c r="K259">
@@ -14190,11 +14400,11 @@
         <v>55609.4921875</v>
       </c>
       <c r="H260">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60580.61154424672</v>
       </c>
       <c r="I260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56739.183669911705</v>
       </c>
       <c r="K260">
@@ -14245,11 +14455,11 @@
         <v>55351.01171875</v>
       </c>
       <c r="H261">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60281.278450061327</v>
       </c>
       <c r="I261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56490.742912930044</v>
       </c>
       <c r="K261">
@@ -14300,11 +14510,11 @@
         <v>55722.625</v>
       </c>
       <c r="H262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59981.129264461662</v>
       </c>
       <c r="I262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56240.829620111661</v>
       </c>
       <c r="K262">
@@ -14355,11 +14565,11 @@
         <v>55400.19921875</v>
       </c>
       <c r="H263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59680.21895387736</v>
       </c>
       <c r="I263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55989.507059807067</v>
       </c>
       <c r="K263">
@@ -14410,11 +14620,11 @@
         <v>54873.078125</v>
       </c>
       <c r="H264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59378.60136538493</v>
       </c>
       <c r="I264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55736.837277599298</v>
       </c>
       <c r="K264">
@@ -14465,11 +14675,11 @@
         <v>54633.328125</v>
       </c>
       <c r="H265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59076.32924478098</v>
       </c>
       <c r="I265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55482.881115649951</v>
       </c>
       <c r="K265">
@@ -14520,11 +14730,11 @@
         <v>54806.1328125</v>
       </c>
       <c r="H266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58773.454254392382</v>
       </c>
       <c r="I266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55227.698231766663</v>
       </c>
       <c r="K266">
@@ -14575,11 +14785,11 @@
         <v>53990.7109375</v>
       </c>
       <c r="H267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58470.026990626502</v>
       </c>
       <c r="I267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54971.347118195459</v>
       </c>
       <c r="K267">
@@ -14630,11 +14840,11 @@
         <v>54348.6171875</v>
       </c>
       <c r="H268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58166.097001265807</v>
       </c>
       <c r="I268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54713.885120141924</v>
       </c>
       <c r="K268">
@@ -14685,11 +14895,11 @@
         <v>53795.99609375</v>
       </c>
       <c r="H269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57861.71280250929</v>
       </c>
       <c r="I269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54455.368454024865</v>
       </c>
       <c r="K269">
@@ -14740,11 +14950,11 @@
         <v>53514.44921875</v>
       </c>
       <c r="H270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57556.921895765474</v>
       </c>
       <c r="I270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54195.852225466195</v>
       </c>
       <c r="K270">
@@ -14795,11 +15005,11 @@
         <v>53065.6328125</v>
       </c>
       <c r="H271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57251.770784199238</v>
       </c>
       <c r="I271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53935.39044702032</v>
       </c>
       <c r="K271">
@@ -14850,11 +15060,11 @@
         <v>53170.875</v>
       </c>
       <c r="H272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56946.304989036711</v>
       </c>
       <c r="I272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53674.036055647222</v>
       </c>
       <c r="K272">
@@ -14905,11 +15115,11 @@
         <v>53104.46484375</v>
       </c>
       <c r="H273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56640.569065630923</v>
       </c>
       <c r="I273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53411.840929931852</v>
       </c>
       <c r="K273">
@@ -14960,11 +15170,11 @@
         <v>51907.95703125</v>
       </c>
       <c r="H274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56334.606619292259</v>
       </c>
       <c r="I274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53148.855907054312</v>
       </c>
       <c r="K274">
@@ -15015,11 +15225,11 @@
         <v>51846.65625</v>
       </c>
       <c r="H275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56028.460320885904</v>
       </c>
       <c r="I275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52885.130799513412</v>
       </c>
       <c r="K275">
@@ -15070,11 +15280,11 @@
         <v>51724.5234375</v>
       </c>
       <c r="H276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55722.171922200825</v>
       </c>
       <c r="I276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52620.714411607471</v>
       </c>
       <c r="K276">
@@ -15125,11 +15335,11 @@
         <v>50822.0546875</v>
       </c>
       <c r="H277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55415.78227109219</v>
       </c>
       <c r="I277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52355.654555675523</v>
       </c>
       <c r="K277">
@@ -15180,11 +15390,11 @@
         <v>51295.8984375</v>
       </c>
       <c r="H278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55109.331326401079</v>
       </c>
       <c r="I278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52089.998068102053</v>
       </c>
       <c r="K278">
@@ -15235,11 +15445,11 @@
         <v>50398.6953125</v>
       </c>
       <c r="H279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54802.858172654545</v>
       </c>
       <c r="I279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51823.790825089032</v>
       </c>
       <c r="K279">
@@ -15290,11 +15500,11 @@
         <v>50596.890625</v>
       </c>
       <c r="H280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54496.401034548566</v>
       </c>
       <c r="I280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51557.077758197665</v>
       </c>
       <c r="K280">
@@ -15345,11 +15555,11 @@
         <v>49609.3359375</v>
       </c>
       <c r="H281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54189.997291217616</v>
       </c>
       <c r="I281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51289.902869663885</v>
       </c>
       <c r="K281">
@@ -15400,11 +15610,11 @@
         <v>49593.875</v>
       </c>
       <c r="H282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53883.683490293144</v>
       </c>
       <c r="I282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51022.309247489931</v>
       </c>
       <c r="K282">
@@ -15455,11 +15665,11 @@
         <v>49512.1484375</v>
       </c>
       <c r="H283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53577.495361754263</v>
       </c>
       <c r="I283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50754.339080315636</v>
       </c>
       <c r="K283">
@@ -15510,11 +15720,11 @@
         <v>49082.9140625</v>
       </c>
       <c r="H284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53271.467831573529</v>
       </c>
       <c r="I284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50486.033672072117</v>
       </c>
       <c r="K284">
@@ -15565,11 +15775,11 @@
         <v>48556.55859375</v>
       </c>
       <c r="H285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52965.635035160427</v>
       </c>
       <c r="I285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50217.433456421153</v>
       </c>
       <c r="K285">
@@ -15620,11 +15830,11 @@
         <v>48551.6875</v>
       </c>
       <c r="H286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52660.030330605521</v>
       </c>
       <c r="I286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49948.578010982827</v>
       </c>
       <c r="K286">
@@ -15675,11 +15885,11 @@
         <v>47722.47265625</v>
       </c>
       <c r="H287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52354.686311728226</v>
       </c>
       <c r="I287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49679.506071354896</v>
       </c>
       <c r="K287">
@@ -15730,11 +15940,11 @@
         <v>47687.9609375</v>
       </c>
       <c r="H288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52049.634820930289</v>
       </c>
       <c r="I288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49410.255544926003</v>
       </c>
       <c r="K288">
@@ -15785,11 +15995,11 @@
         <v>46968.203125</v>
       </c>
       <c r="H289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51744.90696185876</v>
       </c>
       <c r="I289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49140.863524486544</v>
       </c>
       <c r="K289">
@@ -15840,11 +16050,11 @@
         <v>46948.9453125</v>
       </c>
       <c r="H290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51440.533111879675</v>
       </c>
       <c r="I290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48871.366301638882</v>
       </c>
       <c r="K290">
@@ -15895,11 +16105,11 @@
         <v>46413.8515625</v>
       </c>
       <c r="H291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51136.542934366691</v>
       </c>
       <c r="I291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48601.799380010765</v>
       </c>
       <c r="K291">
@@ -15950,11 +16160,11 @@
         <v>46314.4140625</v>
       </c>
       <c r="H292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50832.965390805854</v>
       </c>
       <c r="I292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48332.197488273858</v>
       </c>
       <c r="K292">
@@ -16005,11 +16215,11 @@
         <v>45791.453125</v>
       </c>
       <c r="H293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50529.828752719783</v>
       </c>
       <c r="I293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48062.594592970381</v>
       </c>
       <c r="K293">
@@ -16060,11 +16270,11 @@
         <v>45554.3671875</v>
       </c>
       <c r="H294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50227.160613413856</v>
       </c>
       <c r="I294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47793.023911150703</v>
       </c>
       <c r="K294">
@@ -16115,11 +16325,11 @@
         <v>44812.0625</v>
       </c>
       <c r="H295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49924.98789954633</v>
       </c>
       <c r="I295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47523.517922824067</v>
       </c>
       <c r="K295">
@@ -16170,11 +16380,11 @@
         <v>45195.6328125</v>
       </c>
       <c r="H296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49623.336882525538</v>
       </c>
       <c r="I296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47254.108383225575</v>
       </c>
       <c r="K296">
@@ -16225,11 +16435,11 @@
         <v>44604.8515625</v>
       </c>
       <c r="H297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49322.233189735984</v>
       </c>
       <c r="I297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46984.826334901343</v>
       </c>
       <c r="K297">
@@ -16280,11 +16490,11 @@
         <v>44017.19921875</v>
       </c>
       <c r="H298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49021.701815596149</v>
       </c>
       <c r="I298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46715.702119615089</v>
       </c>
       <c r="K298">
@@ -16335,11 +16545,11 @@
         <v>43883.3203125</v>
       </c>
       <c r="H299">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48721.767132450026</v>
       </c>
       <c r="I299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46446.76539007778</v>
       </c>
       <c r="K299">
@@ -16390,11 +16600,11 @@
         <v>43297.328125</v>
       </c>
       <c r="H300">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48422.452901295088</v>
       </c>
       <c r="I300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>46178.045121503761</v>
       </c>
       <c r="K300">
@@ -16445,11 +16655,11 @@
         <v>43484.79296875</v>
       </c>
       <c r="H301">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48123.782282348555</v>
       </c>
       <c r="I301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45909.569622994764</v>
       </c>
       <c r="K301">
@@ -16530,6 +16740,206 @@
       </c>
       <c r="R302">
         <v>46866.4609375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDE9171-3A4D-4E69-B55A-1FDD8EFBFAF9}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-2.106907717265E-2</v>
+      </c>
+      <c r="B1">
+        <v>-2.5834083543722498E-2</v>
+      </c>
+      <c r="C1">
+        <v>-2.56876670397066E-2</v>
+      </c>
+      <c r="D1">
+        <v>-2.6488705523541298E-2</v>
+      </c>
+      <c r="E1">
+        <v>-2.6174395260071301E-2</v>
+      </c>
+      <c r="F1">
+        <v>-2.0207606906398098E-2</v>
+      </c>
+      <c r="G1">
+        <v>-1.8354064914776699E-2</v>
+      </c>
+      <c r="H1">
+        <v>-1.68052162149567E-2</v>
+      </c>
+      <c r="I1">
+        <v>-2.106907717265E-2</v>
+      </c>
+      <c r="J1">
+        <v>12.508585910953499</v>
+      </c>
+      <c r="L1">
+        <v>12.8524452835942</v>
+      </c>
+      <c r="N1">
+        <v>-2.43855284674553E-2</v>
+      </c>
+      <c r="O1">
+        <v>12.852399461812601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12.508585910953499</v>
+      </c>
+      <c r="B2">
+        <v>13.1220008322134</v>
+      </c>
+      <c r="C2">
+        <v>13.066345858759</v>
+      </c>
+      <c r="D2">
+        <v>13.0323673915942</v>
+      </c>
+      <c r="E2">
+        <v>12.792093673458901</v>
+      </c>
+      <c r="F2">
+        <v>12.602046587923001</v>
+      </c>
+      <c r="G2">
+        <v>12.5251468601405</v>
+      </c>
+      <c r="H2">
+        <v>12.3322481376897</v>
+      </c>
+      <c r="I2">
+        <v>-2.5834083543722498E-2</v>
+      </c>
+      <c r="J2">
+        <v>13.1220008322134</v>
+      </c>
+      <c r="L2">
+        <v>13.0111933763552</v>
+      </c>
+      <c r="N2">
+        <v>-2.51206005242888E-2</v>
+      </c>
+      <c r="O2">
+        <v>13.0118330695678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>-2.56876670397066E-2</v>
+      </c>
+      <c r="J3">
+        <v>13.066345858759</v>
+      </c>
+      <c r="L3">
+        <v>13.0644399455187</v>
+      </c>
+      <c r="N3">
+        <v>-2.5676750604056602E-2</v>
+      </c>
+      <c r="O3">
+        <v>13.0632360957792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>-2.6488705523541298E-2</v>
+      </c>
+      <c r="J4">
+        <v>13.0323673915942</v>
+      </c>
+      <c r="L4">
+        <v>12.9785103666031</v>
+      </c>
+      <c r="N4">
+        <v>-2.5574720018505699E-2</v>
+      </c>
+      <c r="O4">
+        <v>12.9856912326553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>-2.6174395260071301E-2</v>
+      </c>
+      <c r="J5">
+        <v>12.792093673458901</v>
+      </c>
+      <c r="L5">
+        <v>12.8125189583227</v>
+      </c>
+      <c r="N5">
+        <v>-2.4487775901614401E-2</v>
+      </c>
+      <c r="O5">
+        <v>12.834123955278899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>-2.0207606906398098E-2</v>
+      </c>
+      <c r="J6">
+        <v>12.602046587923001</v>
+      </c>
+      <c r="L6">
+        <v>12.647550393119801</v>
+      </c>
+      <c r="N6">
+        <v>-2.2557667452491301E-2</v>
+      </c>
+      <c r="O6">
+        <v>12.6582351476233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>-1.8354064914776699E-2</v>
+      </c>
+      <c r="J7">
+        <v>12.5251468601405</v>
+      </c>
+      <c r="L7">
+        <v>12.5555439537921</v>
+      </c>
+      <c r="N7">
+        <v>-2.00338919010166E-2</v>
+      </c>
+      <c r="O7">
+        <v>12.5025367409221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>-1.68052162149567E-2</v>
+      </c>
+      <c r="J8">
+        <v>12.3322481376897</v>
+      </c>
+      <c r="L8">
+        <v>12.5223986030062</v>
+      </c>
+      <c r="N8">
+        <v>-1.72089650592686E-2</v>
+      </c>
+      <c r="O8">
+        <v>12.368049937964001</v>
       </c>
     </row>
   </sheetData>
